--- a/Data_clean/MCAS/Estados_US/Edos_USA_2015/VERMONT_2015.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2015/VERMONT_2015.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -418,7 +418,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C4">
@@ -470,7 +470,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C8">
@@ -496,7 +496,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -571,8 +571,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Estado de México_x000D_
-</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -590,7 +589,7 @@
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C16">
@@ -696,7 +695,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C23">
@@ -766,7 +765,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C28">
@@ -805,7 +804,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C31">
@@ -1285,41 +1284,6 @@
       </c>
       <c r="D65">
         <v>1</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2015/VERMONT_2015.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2015/VERMONT_2015.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>La Concordia</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -468,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Salto De Agua</t>
@@ -481,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Total</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Azcapotzalco</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Total</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Total</t>
@@ -587,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -600,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Total</t>
@@ -631,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Total</t>
@@ -662,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -675,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Total</t>
@@ -706,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -719,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -732,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Total</t>
@@ -763,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Ixtlán De Juárez</t>
@@ -776,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>San Antonino Monte Verde</t>
@@ -789,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Santa María Tonameca</t>
@@ -802,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Tlalixtac De Cabrera</t>
@@ -815,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Valerio Trujano</t>
@@ -828,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Total</t>
@@ -859,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Atzitzihuacán</t>
@@ -872,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Chichiquila</t>
@@ -885,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Hueytamalco</t>
@@ -898,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Tepeaca</t>
@@ -911,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Teziutlán</t>
@@ -924,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Xiutetelco</t>
@@ -937,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Total</t>
@@ -968,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -981,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1012,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1043,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Ciudad Valles</t>
@@ -1056,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Xilitla</t>
@@ -1069,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1100,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Huimanguillo</t>
@@ -1113,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1144,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Atzalan</t>
@@ -1157,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Isla</t>
@@ -1170,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>José Azueta</t>
@@ -1183,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Misantla</t>
@@ -1196,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Pánuco</t>
@@ -1209,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Playa Vicente</t>
@@ -1222,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Tatatila</t>
@@ -1235,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Tlaquilpa</t>
@@ -1248,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -1261,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Total</t>
